--- a/python/HgInformation.xlsx
+++ b/python/HgInformation.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>服务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主机聚合名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应主机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,27 +52,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cn-north-3a_ecs_general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn-north-3a_cks_general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn-north-3a_rds_general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GENERAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmp001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmp002</t>
+    <t>cmp002,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp001,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,29 +422,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="32.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -472,90 +451,59 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
